--- a/data/GOA_23.1.1_arrowtooth_single_species_1977-2023.xlsx
+++ b/data/GOA_23.1.1_arrowtooth_single_species_1977-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grant.adams\GitHub\GOA ATF ESP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D23EE1-47E6-45D4-948C-FB56B747503A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4626E3-2A26-4832-B271-3D415DAC9A33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="19170" windowHeight="5115" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_data" sheetId="1" r:id="rId1"/>
@@ -13597,7 +13597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:AG95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
@@ -72052,8 +72052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72299,10 +72299,10 @@
         <v>19</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -74135,8 +74135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:DU62"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -74545,7 +74545,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I2">
         <v>108632</v>
@@ -74697,7 +74697,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -74849,7 +74849,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -75001,7 +75001,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I5">
         <v>2477457</v>
@@ -75153,7 +75153,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I6">
         <v>542938</v>
@@ -75305,7 +75305,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I7">
         <v>1297921</v>
@@ -75457,7 +75457,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I8">
         <v>1770417</v>
@@ -75609,7 +75609,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I9">
         <v>26543271</v>
@@ -75761,7 +75761,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I10">
         <v>6694323</v>
@@ -75913,7 +75913,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I11">
         <v>597690</v>
@@ -76065,7 +76065,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I12">
         <v>1944867</v>
@@ -76217,7 +76217,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I13">
         <v>2481768</v>
@@ -76369,7 +76369,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I14">
         <v>9215559</v>
@@ -76521,7 +76521,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I15">
         <v>9347861</v>
@@ -76673,7 +76673,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I16">
         <v>191038</v>
@@ -76825,7 +76825,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I17">
         <v>3096509</v>
@@ -77523,7 +77523,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -77705,7 +77705,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -77887,7 +77887,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -78069,7 +78069,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -78251,7 +78251,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -78433,7 +78433,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -78615,7 +78615,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -78797,7 +78797,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -78979,7 +78979,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -79161,7 +79161,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -79343,7 +79343,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -79525,7 +79525,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -79707,7 +79707,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -79889,7 +79889,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -80071,7 +80071,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -80253,7 +80253,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -80435,7 +80435,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -80617,7 +80617,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -80799,7 +80799,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -80981,7 +80981,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -81163,7 +81163,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -81345,7 +81345,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -81527,7 +81527,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -81709,7 +81709,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -81891,7 +81891,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -82073,7 +82073,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -82255,7 +82255,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -82437,7 +82437,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -82619,7 +82619,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -82801,7 +82801,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -82983,7 +82983,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -83165,7 +83165,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -83347,7 +83347,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -83529,7 +83529,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -83711,7 +83711,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -83893,7 +83893,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -84075,7 +84075,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -84257,7 +84257,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -84439,7 +84439,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -84621,7 +84621,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -84803,7 +84803,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -84985,7 +84985,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I62">
         <v>0</v>
